--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Glyphosate/Glyphosate_Absolute ED_Multiple Comparisons/Data Sheet_Glyphosate_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Glyphosate/Glyphosate_Absolute ED_Multiple Comparisons/Data Sheet_Glyphosate_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Glyphosate/Glyphosate_Absolute ED_Multiple Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{5FDD3415-0A38-4069-8F42-4A368F4BFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13A58E0F-A06B-43A8-AF86-98131465C6C3}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{5FDD3415-0A38-4069-8F42-4A368F4BFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664F3512-8323-40D4-BB81-F9C15B19A158}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>gly+GST</t>
   </si>
   <si>
-    <t>elevated</t>
-  </si>
-  <si>
     <t>ambient</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>treat</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -215,10 +215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -581,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -602,7 +598,7 @@
       </c>
       <c r="F2" s="3" t="str">
         <f>_xlfn.CONCAT(D2, "+", E2, "+", I2)</f>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -611,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -644,7 +640,7 @@
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT(D3, "+", E3, "+", I3)</f>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -653,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
@@ -686,7 +682,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -695,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -728,7 +724,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>8</v>
@@ -737,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
@@ -770,7 +766,7 @@
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
@@ -779,7 +775,7 @@
         <v>13.14</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -813,7 +809,7 @@
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>18</v>
@@ -822,7 +818,7 @@
         <v>13.14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -855,7 +851,7 @@
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>18</v>
@@ -864,7 +860,7 @@
         <v>13.14</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -897,7 +893,7 @@
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
@@ -906,7 +902,7 @@
         <v>13.14</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J9" s="3">
         <v>4</v>
@@ -940,7 +936,7 @@
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -949,7 +945,7 @@
         <v>26.27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -983,7 +979,7 @@
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -992,7 +988,7 @@
         <v>26.27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -1026,7 +1022,7 @@
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -1035,7 +1031,7 @@
         <v>26.27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <v>3</v>
@@ -1069,7 +1065,7 @@
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
@@ -1078,7 +1074,7 @@
         <v>26.27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -1112,7 +1108,7 @@
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
@@ -1121,7 +1117,7 @@
         <v>52.55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -1154,7 +1150,7 @@
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
@@ -1163,7 +1159,7 @@
         <v>52.55</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
@@ -1197,7 +1193,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
@@ -1206,7 +1202,7 @@
         <v>52.55</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -1240,7 +1236,7 @@
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
@@ -1249,7 +1245,7 @@
         <v>52.55</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -1283,7 +1279,7 @@
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>9</v>
@@ -1292,7 +1288,7 @@
         <v>105.09</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -1326,7 +1322,7 @@
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>9</v>
@@ -1335,7 +1331,7 @@
         <v>105.09</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -1368,7 +1364,7 @@
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>9</v>
@@ -1377,7 +1373,7 @@
         <v>105.09</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J20" s="3">
         <v>3</v>
@@ -1411,7 +1407,7 @@
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>9</v>
@@ -1420,7 +1416,7 @@
         <v>105.09</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J21" s="3">
         <v>4</v>
@@ -1454,7 +1450,7 @@
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -1463,7 +1459,7 @@
         <v>210.19</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
@@ -1497,7 +1493,7 @@
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -1506,7 +1502,7 @@
         <v>210.19</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J23" s="3">
         <v>2</v>
@@ -1540,7 +1536,7 @@
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -1549,7 +1545,7 @@
         <v>210.19</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J24" s="3">
         <v>3</v>
@@ -1583,7 +1579,7 @@
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>10</v>
@@ -1592,7 +1588,7 @@
         <v>210.19</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J25" s="3">
         <v>4</v>
@@ -1626,7 +1622,7 @@
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>11</v>
@@ -1635,7 +1631,7 @@
         <v>420.37</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -1669,7 +1665,7 @@
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>11</v>
@@ -1678,7 +1674,7 @@
         <v>420.37</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
@@ -1712,7 +1708,7 @@
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>11</v>
@@ -1721,7 +1717,7 @@
         <v>420.37</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1764,7 +1760,7 @@
         <v>420.37</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3">
         <v>4</v>
@@ -1798,7 +1794,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -1807,7 +1803,7 @@
         <v>840.74</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -1841,7 +1837,7 @@
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>
@@ -1850,7 +1846,7 @@
         <v>840.74</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J31" s="3">
         <v>2</v>
@@ -1884,7 +1880,7 @@
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -1893,7 +1889,7 @@
         <v>840.74</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J32" s="3">
         <v>3</v>
@@ -1927,7 +1923,7 @@
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
@@ -1936,7 +1932,7 @@
         <v>840.74</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <v>4</v>
@@ -1970,7 +1966,7 @@
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>13</v>
@@ -1979,7 +1975,7 @@
         <v>1681.48</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -2013,7 +2009,7 @@
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>13</v>
@@ -2022,7 +2018,7 @@
         <v>1681.48</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J35" s="3">
         <v>2</v>
@@ -2056,7 +2052,7 @@
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>13</v>
@@ -2065,7 +2061,7 @@
         <v>1681.48</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J36" s="3">
         <v>3</v>
@@ -2099,7 +2095,7 @@
       </c>
       <c r="F37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>13</v>
@@ -2108,7 +2104,7 @@
         <v>1681.48</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J37" s="3">
         <v>4</v>
@@ -2142,7 +2138,7 @@
       </c>
       <c r="F38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>14</v>
@@ -2151,7 +2147,7 @@
         <v>3362.96</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
@@ -2185,7 +2181,7 @@
       </c>
       <c r="F39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>14</v>
@@ -2194,7 +2190,7 @@
         <v>3362.96</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
         <v>2</v>
@@ -2228,7 +2224,7 @@
       </c>
       <c r="F40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>14</v>
@@ -2237,7 +2233,7 @@
         <v>3362.96</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J40" s="3">
         <v>3</v>
@@ -2271,7 +2267,7 @@
       </c>
       <c r="F41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>14</v>
@@ -2280,7 +2276,7 @@
         <v>3362.96</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J41" s="3">
         <v>4</v>
@@ -2323,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -2365,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J43" s="3">
         <v>2</v>
@@ -2407,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="3">
         <v>3</v>
@@ -2449,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="3">
         <v>4</v>
@@ -2491,7 +2487,7 @@
         <v>13.14</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
@@ -2534,7 +2530,7 @@
         <v>13.14</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" s="3">
         <v>2</v>
@@ -2577,7 +2573,7 @@
         <v>13.14</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J48" s="3">
         <v>3</v>
@@ -2619,7 +2615,7 @@
         <v>13.14</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" s="3">
         <v>4</v>
@@ -2661,7 +2657,7 @@
         <v>26.27</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -2704,7 +2700,7 @@
         <v>26.27</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J51" s="3">
         <v>2</v>
@@ -2747,7 +2743,7 @@
         <v>26.27</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J52" s="3">
         <v>3</v>
@@ -2789,7 +2785,7 @@
         <v>26.27</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="3">
         <v>4</v>
@@ -2832,7 +2828,7 @@
         <v>52.55</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -2875,7 +2871,7 @@
         <v>52.55</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J55" s="3">
         <v>2</v>
@@ -2918,7 +2914,7 @@
         <v>52.55</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J56" s="3">
         <v>3</v>
@@ -2960,7 +2956,7 @@
         <v>52.55</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J57" s="3">
         <v>4</v>
@@ -3003,7 +2999,7 @@
         <v>105.09</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -3046,7 +3042,7 @@
         <v>105.09</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
@@ -3089,7 +3085,7 @@
         <v>105.09</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J60" s="3">
         <v>3</v>
@@ -3131,7 +3127,7 @@
         <v>105.09</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" s="3">
         <v>4</v>
@@ -3174,7 +3170,7 @@
         <v>210.19</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -3217,7 +3213,7 @@
         <v>210.19</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -3260,7 +3256,7 @@
         <v>210.19</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" s="3">
         <v>3</v>
@@ -3303,7 +3299,7 @@
         <v>210.19</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J65" s="3">
         <v>4</v>
@@ -3346,7 +3342,7 @@
         <v>420.37</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -3389,7 +3385,7 @@
         <v>420.37</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J67" s="3">
         <v>2</v>
@@ -3432,7 +3428,7 @@
         <v>420.37</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J68" s="3">
         <v>3</v>
@@ -3475,7 +3471,7 @@
         <v>420.37</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J69" s="3">
         <v>4</v>
@@ -3518,7 +3514,7 @@
         <v>840.74</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
@@ -3561,7 +3557,7 @@
         <v>840.74</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J71" s="3">
         <v>2</v>
@@ -3604,7 +3600,7 @@
         <v>840.74</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J72" s="3">
         <v>3</v>
@@ -3647,7 +3643,7 @@
         <v>840.74</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J73" s="3">
         <v>4</v>
@@ -3690,7 +3686,7 @@
         <v>1681.48</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
@@ -3733,7 +3729,7 @@
         <v>1681.48</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J75" s="3">
         <v>2</v>
@@ -3776,7 +3772,7 @@
         <v>1681.48</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J76" s="3">
         <v>3</v>
@@ -3819,7 +3815,7 @@
         <v>1681.48</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J77" s="3">
         <v>4</v>
@@ -3862,7 +3858,7 @@
         <v>3362.96</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
@@ -3905,7 +3901,7 @@
         <v>3362.96</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J79" s="3">
         <v>2</v>
@@ -3948,7 +3944,7 @@
         <v>3362.96</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J80" s="3">
         <v>3</v>
@@ -3991,7 +3987,7 @@
         <v>3362.96</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J81" s="3">
         <v>4</v>
@@ -4025,7 +4021,7 @@
       </c>
       <c r="F82" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>8</v>
@@ -4034,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="F83" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -4076,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J83" s="3">
         <v>2</v>
@@ -4109,7 +4105,7 @@
       </c>
       <c r="F84" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>8</v>
@@ -4118,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J84" s="3">
         <v>3</v>
@@ -4151,7 +4147,7 @@
       </c>
       <c r="F85" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>8</v>
@@ -4160,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J85" s="3">
         <v>4</v>
@@ -4193,7 +4189,7 @@
       </c>
       <c r="F86" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>18</v>
@@ -4202,7 +4198,7 @@
         <v>13.14</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
@@ -4236,7 +4232,7 @@
       </c>
       <c r="F87" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>18</v>
@@ -4245,7 +4241,7 @@
         <v>13.14</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
@@ -4279,7 +4275,7 @@
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>18</v>
@@ -4288,7 +4284,7 @@
         <v>13.14</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J88" s="3">
         <v>3</v>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>18</v>
@@ -4331,7 +4327,7 @@
         <v>13.14</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J89" s="3">
         <v>4</v>
@@ -4365,7 +4361,7 @@
       </c>
       <c r="F90" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>19</v>
@@ -4374,7 +4370,7 @@
         <v>26.27</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
@@ -4408,7 +4404,7 @@
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>19</v>
@@ -4417,7 +4413,7 @@
         <v>26.27</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J91" s="3">
         <v>2</v>
@@ -4451,7 +4447,7 @@
       </c>
       <c r="F92" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>19</v>
@@ -4460,7 +4456,7 @@
         <v>26.27</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J92" s="3">
         <v>3</v>
@@ -4494,7 +4490,7 @@
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>19</v>
@@ -4503,7 +4499,7 @@
         <v>26.27</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J93" s="3">
         <v>4</v>
@@ -4537,7 +4533,7 @@
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>20</v>
@@ -4546,7 +4542,7 @@
         <v>52.55</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J94" s="3">
         <v>1</v>
@@ -4580,7 +4576,7 @@
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>20</v>
@@ -4589,7 +4585,7 @@
         <v>52.55</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J95" s="3">
         <v>2</v>
@@ -4623,7 +4619,7 @@
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>20</v>
@@ -4632,7 +4628,7 @@
         <v>52.55</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
@@ -4666,7 +4662,7 @@
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>20</v>
@@ -4675,7 +4671,7 @@
         <v>52.55</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J97" s="3">
         <v>4</v>
@@ -4709,7 +4705,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>9</v>
@@ -4718,7 +4714,7 @@
         <v>105.09</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J98" s="3">
         <v>1</v>
@@ -4752,7 +4748,7 @@
       </c>
       <c r="F99" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>9</v>
@@ -4761,7 +4757,7 @@
         <v>105.09</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J99" s="3">
         <v>2</v>
@@ -4795,7 +4791,7 @@
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>9</v>
@@ -4804,7 +4800,7 @@
         <v>105.09</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J100" s="3">
         <v>3</v>
@@ -4838,7 +4834,7 @@
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>9</v>
@@ -4847,7 +4843,7 @@
         <v>105.09</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J101" s="3">
         <v>4</v>
@@ -4881,7 +4877,7 @@
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
@@ -4890,7 +4886,7 @@
         <v>210.19</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J102" s="3">
         <v>1</v>
@@ -4924,7 +4920,7 @@
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>10</v>
@@ -4933,7 +4929,7 @@
         <v>210.19</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
@@ -4966,7 +4962,7 @@
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>10</v>
@@ -4975,7 +4971,7 @@
         <v>210.19</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
@@ -5009,7 +5005,7 @@
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>10</v>
@@ -5018,7 +5014,7 @@
         <v>210.19</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J105" s="3">
         <v>4</v>
@@ -5051,7 +5047,7 @@
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>11</v>
@@ -5060,7 +5056,7 @@
         <v>420.37</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
@@ -5094,7 +5090,7 @@
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>11</v>
@@ -5103,7 +5099,7 @@
         <v>420.37</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J107" s="3">
         <v>2</v>
@@ -5136,7 +5132,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>11</v>
@@ -5145,7 +5141,7 @@
         <v>420.37</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J108" s="3">
         <v>3</v>
@@ -5178,7 +5174,7 @@
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>11</v>
@@ -5187,7 +5183,7 @@
         <v>420.37</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J109" s="3">
         <v>4</v>
@@ -5221,7 +5217,7 @@
       </c>
       <c r="F110" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>12</v>
@@ -5230,7 +5226,7 @@
         <v>840.74</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J110" s="3">
         <v>1</v>
@@ -5264,7 +5260,7 @@
       </c>
       <c r="F111" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>12</v>
@@ -5273,7 +5269,7 @@
         <v>840.74</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J111" s="3">
         <v>2</v>
@@ -5307,7 +5303,7 @@
       </c>
       <c r="F112" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>12</v>
@@ -5316,7 +5312,7 @@
         <v>840.74</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J112" s="3">
         <v>3</v>
@@ -5350,7 +5346,7 @@
       </c>
       <c r="F113" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>12</v>
@@ -5359,7 +5355,7 @@
         <v>840.74</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J113" s="3">
         <v>4</v>
@@ -5393,7 +5389,7 @@
       </c>
       <c r="F114" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>13</v>
@@ -5402,7 +5398,7 @@
         <v>1681.48</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
@@ -5436,7 +5432,7 @@
       </c>
       <c r="F115" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>13</v>
@@ -5445,7 +5441,7 @@
         <v>1681.48</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
@@ -5479,7 +5475,7 @@
       </c>
       <c r="F116" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>13</v>
@@ -5488,7 +5484,7 @@
         <v>1681.48</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J116" s="3">
         <v>3</v>
@@ -5521,7 +5517,7 @@
       </c>
       <c r="F117" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>13</v>
@@ -5530,7 +5526,7 @@
         <v>1681.48</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J117" s="3">
         <v>4</v>
@@ -5564,7 +5560,7 @@
       </c>
       <c r="F118" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>14</v>
@@ -5573,7 +5569,7 @@
         <v>3362.96</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J118" s="3">
         <v>1</v>
@@ -5607,7 +5603,7 @@
       </c>
       <c r="F119" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>14</v>
@@ -5616,7 +5612,7 @@
         <v>3362.96</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J119" s="3">
         <v>2</v>
@@ -5650,7 +5646,7 @@
       </c>
       <c r="F120" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>14</v>
@@ -5659,7 +5655,7 @@
         <v>3362.96</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J120" s="3">
         <v>3</v>
@@ -5693,7 +5689,7 @@
       </c>
       <c r="F121" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>14</v>
@@ -5702,7 +5698,7 @@
         <v>3362.96</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J121" s="3">
         <v>4</v>
@@ -5736,7 +5732,7 @@
       </c>
       <c r="F122" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>8</v>
@@ -5745,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
@@ -5778,7 +5774,7 @@
       </c>
       <c r="F123" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>8</v>
@@ -5787,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J123" s="3">
         <v>2</v>
@@ -5820,7 +5816,7 @@
       </c>
       <c r="F124" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>8</v>
@@ -5829,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J124" s="3">
         <v>3</v>
@@ -5862,7 +5858,7 @@
       </c>
       <c r="F125" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>8</v>
@@ -5871,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J125" s="3">
         <v>4</v>
@@ -5904,7 +5900,7 @@
       </c>
       <c r="F126" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>18</v>
@@ -5913,7 +5909,7 @@
         <v>13.14</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J126" s="3">
         <v>1</v>
@@ -5946,7 +5942,7 @@
       </c>
       <c r="F127" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>18</v>
@@ -5955,7 +5951,7 @@
         <v>13.14</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J127" s="3">
         <v>2</v>
@@ -5988,7 +5984,7 @@
       </c>
       <c r="F128" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>18</v>
@@ -5997,7 +5993,7 @@
         <v>13.14</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J128" s="3">
         <v>3</v>
@@ -6030,7 +6026,7 @@
       </c>
       <c r="F129" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>18</v>
@@ -6039,7 +6035,7 @@
         <v>13.14</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J129" s="3">
         <v>4</v>
@@ -6072,7 +6068,7 @@
       </c>
       <c r="F130" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>19</v>
@@ -6081,7 +6077,7 @@
         <v>26.27</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J130" s="3">
         <v>1</v>
@@ -6115,7 +6111,7 @@
       </c>
       <c r="F131" s="3" t="str">
         <f t="shared" ref="F131:F194" si="6">_xlfn.CONCAT(D131, "+", E131, "+", I131)</f>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>19</v>
@@ -6124,7 +6120,7 @@
         <v>26.27</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J131" s="3">
         <v>2</v>
@@ -6158,7 +6154,7 @@
       </c>
       <c r="F132" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>19</v>
@@ -6167,7 +6163,7 @@
         <v>26.27</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J132" s="3">
         <v>3</v>
@@ -6201,7 +6197,7 @@
       </c>
       <c r="F133" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>19</v>
@@ -6210,7 +6206,7 @@
         <v>26.27</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J133" s="3">
         <v>4</v>
@@ -6243,7 +6239,7 @@
       </c>
       <c r="F134" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>20</v>
@@ -6252,7 +6248,7 @@
         <v>52.55</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J134" s="3">
         <v>1</v>
@@ -6286,7 +6282,7 @@
       </c>
       <c r="F135" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>20</v>
@@ -6295,7 +6291,7 @@
         <v>52.55</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J135" s="3">
         <v>2</v>
@@ -6329,7 +6325,7 @@
       </c>
       <c r="F136" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>20</v>
@@ -6338,7 +6334,7 @@
         <v>52.55</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J136" s="3">
         <v>3</v>
@@ -6372,7 +6368,7 @@
       </c>
       <c r="F137" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>20</v>
@@ -6381,7 +6377,7 @@
         <v>52.55</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J137" s="3">
         <v>4</v>
@@ -6415,7 +6411,7 @@
       </c>
       <c r="F138" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>9</v>
@@ -6424,7 +6420,7 @@
         <v>105.09</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J138" s="3">
         <v>1</v>
@@ -6458,7 +6454,7 @@
       </c>
       <c r="F139" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>9</v>
@@ -6467,7 +6463,7 @@
         <v>105.09</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J139" s="3">
         <v>2</v>
@@ -6501,7 +6497,7 @@
       </c>
       <c r="F140" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>9</v>
@@ -6510,7 +6506,7 @@
         <v>105.09</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J140" s="3">
         <v>3</v>
@@ -6544,7 +6540,7 @@
       </c>
       <c r="F141" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>9</v>
@@ -6553,7 +6549,7 @@
         <v>105.09</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J141" s="3">
         <v>4</v>
@@ -6587,7 +6583,7 @@
       </c>
       <c r="F142" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>10</v>
@@ -6596,7 +6592,7 @@
         <v>210.19</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J142" s="3">
         <v>1</v>
@@ -6623,7 +6619,7 @@
       </c>
       <c r="F143" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>10</v>
@@ -6632,7 +6628,7 @@
         <v>210.19</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J143" s="3">
         <v>2</v>
@@ -6666,7 +6662,7 @@
       </c>
       <c r="F144" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>10</v>
@@ -6675,7 +6671,7 @@
         <v>210.19</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J144" s="3">
         <v>3</v>
@@ -6709,7 +6705,7 @@
       </c>
       <c r="F145" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>10</v>
@@ -6718,7 +6714,7 @@
         <v>210.19</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J145" s="3">
         <v>4</v>
@@ -6751,7 +6747,7 @@
       </c>
       <c r="F146" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>11</v>
@@ -6760,7 +6756,7 @@
         <v>420.37</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J146" s="3">
         <v>1</v>
@@ -6794,7 +6790,7 @@
       </c>
       <c r="F147" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>11</v>
@@ -6803,7 +6799,7 @@
         <v>420.37</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J147" s="3">
         <v>2</v>
@@ -6837,7 +6833,7 @@
       </c>
       <c r="F148" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>11</v>
@@ -6846,7 +6842,7 @@
         <v>420.37</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J148" s="3">
         <v>3</v>
@@ -6879,7 +6875,7 @@
       </c>
       <c r="F149" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>11</v>
@@ -6888,7 +6884,7 @@
         <v>420.37</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J149" s="3">
         <v>4</v>
@@ -6922,7 +6918,7 @@
       </c>
       <c r="F150" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>12</v>
@@ -6931,7 +6927,7 @@
         <v>840.74</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J150" s="3">
         <v>1</v>
@@ -6965,7 +6961,7 @@
       </c>
       <c r="F151" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>12</v>
@@ -6974,7 +6970,7 @@
         <v>840.74</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J151" s="3">
         <v>2</v>
@@ -7008,7 +7004,7 @@
       </c>
       <c r="F152" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>12</v>
@@ -7017,7 +7013,7 @@
         <v>840.74</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J152" s="3">
         <v>3</v>
@@ -7051,7 +7047,7 @@
       </c>
       <c r="F153" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>12</v>
@@ -7060,7 +7056,7 @@
         <v>840.74</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J153" s="3">
         <v>4</v>
@@ -7094,7 +7090,7 @@
       </c>
       <c r="F154" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>13</v>
@@ -7103,7 +7099,7 @@
         <v>1681.48</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J154" s="3">
         <v>1</v>
@@ -7136,7 +7132,7 @@
       </c>
       <c r="F155" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>13</v>
@@ -7145,7 +7141,7 @@
         <v>1681.48</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J155" s="3">
         <v>2</v>
@@ -7179,7 +7175,7 @@
       </c>
       <c r="F156" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>13</v>
@@ -7188,7 +7184,7 @@
         <v>1681.48</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J156" s="3">
         <v>3</v>
@@ -7222,7 +7218,7 @@
       </c>
       <c r="F157" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>13</v>
@@ -7231,7 +7227,7 @@
         <v>1681.48</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J157" s="3">
         <v>4</v>
@@ -7265,7 +7261,7 @@
       </c>
       <c r="F158" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>14</v>
@@ -7274,7 +7270,7 @@
         <v>3362.96</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J158" s="3">
         <v>1</v>
@@ -7308,7 +7304,7 @@
       </c>
       <c r="F159" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>14</v>
@@ -7317,7 +7313,7 @@
         <v>3362.96</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J159" s="3">
         <v>2</v>
@@ -7351,7 +7347,7 @@
       </c>
       <c r="F160" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>14</v>
@@ -7360,7 +7356,7 @@
         <v>3362.96</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J160" s="3">
         <v>3</v>
@@ -7394,7 +7390,7 @@
       </c>
       <c r="F161" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>14</v>
@@ -7403,7 +7399,7 @@
         <v>3362.96</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J161" s="3">
         <v>4</v>
@@ -7437,7 +7433,7 @@
       </c>
       <c r="F162" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>8</v>
@@ -7446,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J162" s="3">
         <v>1</v>
@@ -7479,7 +7475,7 @@
       </c>
       <c r="F163" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>8</v>
@@ -7488,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J163" s="3">
         <v>2</v>
@@ -7521,7 +7517,7 @@
       </c>
       <c r="F164" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>8</v>
@@ -7530,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J164" s="3">
         <v>3</v>
@@ -7563,7 +7559,7 @@
       </c>
       <c r="F165" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>8</v>
@@ -7572,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J165" s="3">
         <v>4</v>
@@ -7605,7 +7601,7 @@
       </c>
       <c r="F166" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>18</v>
@@ -7614,7 +7610,7 @@
         <v>13.14</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J166" s="3">
         <v>1</v>
@@ -7648,7 +7644,7 @@
       </c>
       <c r="F167" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>18</v>
@@ -7657,7 +7653,7 @@
         <v>13.14</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J167" s="3">
         <v>2</v>
@@ -7690,7 +7686,7 @@
       </c>
       <c r="F168" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>18</v>
@@ -7699,7 +7695,7 @@
         <v>13.14</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J168" s="3">
         <v>3</v>
@@ -7733,7 +7729,7 @@
       </c>
       <c r="F169" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>18</v>
@@ -7742,7 +7738,7 @@
         <v>13.14</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J169" s="3">
         <v>4</v>
@@ -7776,7 +7772,7 @@
       </c>
       <c r="F170" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>19</v>
@@ -7785,7 +7781,7 @@
         <v>26.27</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J170" s="3">
         <v>1</v>
@@ -7818,7 +7814,7 @@
       </c>
       <c r="F171" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>19</v>
@@ -7827,7 +7823,7 @@
         <v>26.27</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J171" s="3">
         <v>2</v>
@@ -7861,7 +7857,7 @@
       </c>
       <c r="F172" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>19</v>
@@ -7870,7 +7866,7 @@
         <v>26.27</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J172" s="3">
         <v>3</v>
@@ -7904,7 +7900,7 @@
       </c>
       <c r="F173" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>19</v>
@@ -7913,7 +7909,7 @@
         <v>26.27</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J173" s="3">
         <v>4</v>
@@ -7947,7 +7943,7 @@
       </c>
       <c r="F174" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>20</v>
@@ -7956,7 +7952,7 @@
         <v>52.55</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J174" s="3">
         <v>1</v>
@@ -7989,7 +7985,7 @@
       </c>
       <c r="F175" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>20</v>
@@ -7998,7 +7994,7 @@
         <v>52.55</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J175" s="3">
         <v>2</v>
@@ -8032,7 +8028,7 @@
       </c>
       <c r="F176" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>20</v>
@@ -8041,7 +8037,7 @@
         <v>52.55</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J176" s="3">
         <v>3</v>
@@ -8075,7 +8071,7 @@
       </c>
       <c r="F177" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>20</v>
@@ -8084,7 +8080,7 @@
         <v>52.55</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J177" s="3">
         <v>4</v>
@@ -8118,7 +8114,7 @@
       </c>
       <c r="F178" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>9</v>
@@ -8127,7 +8123,7 @@
         <v>105.09</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J178" s="3">
         <v>1</v>
@@ -8161,7 +8157,7 @@
       </c>
       <c r="F179" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>9</v>
@@ -8170,7 +8166,7 @@
         <v>105.09</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J179" s="3">
         <v>2</v>
@@ -8203,7 +8199,7 @@
       </c>
       <c r="F180" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>9</v>
@@ -8212,7 +8208,7 @@
         <v>105.09</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J180" s="3">
         <v>3</v>
@@ -8246,7 +8242,7 @@
       </c>
       <c r="F181" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>9</v>
@@ -8255,7 +8251,7 @@
         <v>105.09</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J181" s="3">
         <v>4</v>
@@ -8288,7 +8284,7 @@
       </c>
       <c r="F182" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>10</v>
@@ -8297,7 +8293,7 @@
         <v>210.19</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J182" s="3">
         <v>1</v>
@@ -8331,7 +8327,7 @@
       </c>
       <c r="F183" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>10</v>
@@ -8340,7 +8336,7 @@
         <v>210.19</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J183" s="3">
         <v>2</v>
@@ -8374,7 +8370,7 @@
       </c>
       <c r="F184" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>10</v>
@@ -8383,7 +8379,7 @@
         <v>210.19</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J184" s="3">
         <v>3</v>
@@ -8417,7 +8413,7 @@
       </c>
       <c r="F185" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>10</v>
@@ -8426,7 +8422,7 @@
         <v>210.19</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J185" s="3">
         <v>4</v>
@@ -8460,7 +8456,7 @@
       </c>
       <c r="F186" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>11</v>
@@ -8469,7 +8465,7 @@
         <v>420.37</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J186" s="3">
         <v>1</v>
@@ -8503,7 +8499,7 @@
       </c>
       <c r="F187" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>11</v>
@@ -8512,7 +8508,7 @@
         <v>420.37</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J187" s="3">
         <v>2</v>
@@ -8546,7 +8542,7 @@
       </c>
       <c r="F188" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>11</v>
@@ -8555,7 +8551,7 @@
         <v>420.37</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J188" s="3">
         <v>3</v>
@@ -8588,7 +8584,7 @@
       </c>
       <c r="F189" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>11</v>
@@ -8597,7 +8593,7 @@
         <v>420.37</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J189" s="3">
         <v>4</v>
@@ -8631,7 +8627,7 @@
       </c>
       <c r="F190" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>12</v>
@@ -8640,7 +8636,7 @@
         <v>840.74</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J190" s="3">
         <v>1</v>
@@ -8674,7 +8670,7 @@
       </c>
       <c r="F191" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>12</v>
@@ -8683,7 +8679,7 @@
         <v>840.74</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -8717,7 +8713,7 @@
       </c>
       <c r="F192" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>12</v>
@@ -8726,7 +8722,7 @@
         <v>840.74</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J192" s="3">
         <v>3</v>
@@ -8760,7 +8756,7 @@
       </c>
       <c r="F193" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>12</v>
@@ -8769,7 +8765,7 @@
         <v>840.74</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J193" s="3">
         <v>4</v>
@@ -8803,7 +8799,7 @@
       </c>
       <c r="F194" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>13</v>
@@ -8812,7 +8808,7 @@
         <v>1681.48</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J194" s="3">
         <v>1</v>
@@ -8846,7 +8842,7 @@
       </c>
       <c r="F195" s="3" t="str">
         <f t="shared" ref="F195:F258" si="8">_xlfn.CONCAT(D195, "+", E195, "+", I195)</f>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>13</v>
@@ -8855,7 +8851,7 @@
         <v>1681.48</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J195" s="3">
         <v>2</v>
@@ -8889,7 +8885,7 @@
       </c>
       <c r="F196" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>13</v>
@@ -8898,7 +8894,7 @@
         <v>1681.48</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J196" s="3">
         <v>3</v>
@@ -8932,7 +8928,7 @@
       </c>
       <c r="F197" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>13</v>
@@ -8941,7 +8937,7 @@
         <v>1681.48</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J197" s="3">
         <v>4</v>
@@ -8975,7 +8971,7 @@
       </c>
       <c r="F198" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>14</v>
@@ -8984,7 +8980,7 @@
         <v>3362.96</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J198" s="3">
         <v>1</v>
@@ -9018,7 +9014,7 @@
       </c>
       <c r="F199" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>14</v>
@@ -9027,7 +9023,7 @@
         <v>3362.96</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J199" s="3">
         <v>2</v>
@@ -9060,7 +9056,7 @@
       </c>
       <c r="F200" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>14</v>
@@ -9069,7 +9065,7 @@
         <v>3362.96</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J200" s="3">
         <v>3</v>
@@ -9103,7 +9099,7 @@
       </c>
       <c r="F201" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>14</v>
@@ -9112,7 +9108,7 @@
         <v>3362.96</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J201" s="3">
         <v>4</v>
@@ -9155,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J202" s="3">
         <v>1</v>
@@ -9197,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J203" s="3">
         <v>2</v>
@@ -9239,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J204" s="3">
         <v>3</v>
@@ -9281,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J205" s="3">
         <v>4</v>
@@ -9323,7 +9319,7 @@
         <v>13.14</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J206" s="3">
         <v>1</v>
@@ -9366,7 +9362,7 @@
         <v>13.14</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J207" s="3">
         <v>2</v>
@@ -9409,7 +9405,7 @@
         <v>13.14</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J208" s="3">
         <v>3</v>
@@ -9452,7 +9448,7 @@
         <v>13.14</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J209" s="3">
         <v>4</v>
@@ -9495,7 +9491,7 @@
         <v>26.27</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J210" s="3">
         <v>1</v>
@@ -9538,7 +9534,7 @@
         <v>26.27</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J211" s="3">
         <v>2</v>
@@ -9581,7 +9577,7 @@
         <v>26.27</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J212" s="3">
         <v>3</v>
@@ -9623,7 +9619,7 @@
         <v>26.27</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J213" s="3">
         <v>4</v>
@@ -9666,7 +9662,7 @@
         <v>52.55</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J214" s="3">
         <v>1</v>
@@ -9709,7 +9705,7 @@
         <v>52.55</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J215" s="3">
         <v>2</v>
@@ -9752,7 +9748,7 @@
         <v>52.55</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J216" s="3">
         <v>3</v>
@@ -9795,7 +9791,7 @@
         <v>52.55</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J217" s="3">
         <v>4</v>
@@ -9838,7 +9834,7 @@
         <v>105.09</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J218" s="3">
         <v>1</v>
@@ -9881,7 +9877,7 @@
         <v>105.09</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J219" s="3">
         <v>2</v>
@@ -9924,7 +9920,7 @@
         <v>105.09</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J220" s="3">
         <v>3</v>
@@ -9966,7 +9962,7 @@
         <v>105.09</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J221" s="3">
         <v>4</v>
@@ -10009,7 +10005,7 @@
         <v>210.19</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J222" s="3">
         <v>1</v>
@@ -10052,7 +10048,7 @@
         <v>210.19</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -10095,7 +10091,7 @@
         <v>210.19</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J224" s="3">
         <v>3</v>
@@ -10137,7 +10133,7 @@
         <v>210.19</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J225" s="3">
         <v>4</v>
@@ -10180,7 +10176,7 @@
         <v>420.37</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J226" s="3">
         <v>1</v>
@@ -10223,7 +10219,7 @@
         <v>420.37</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J227" s="3">
         <v>2</v>
@@ -10266,7 +10262,7 @@
         <v>420.37</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J228" s="3">
         <v>3</v>
@@ -10309,7 +10305,7 @@
         <v>420.37</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J229" s="3">
         <v>4</v>
@@ -10352,7 +10348,7 @@
         <v>840.74</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J230" s="3">
         <v>1</v>
@@ -10395,7 +10391,7 @@
         <v>840.74</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J231" s="3">
         <v>2</v>
@@ -10438,7 +10434,7 @@
         <v>840.74</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J232" s="3">
         <v>3</v>
@@ -10481,7 +10477,7 @@
         <v>840.74</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J233" s="3">
         <v>4</v>
@@ -10524,7 +10520,7 @@
         <v>1681.48</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J234" s="3">
         <v>1</v>
@@ -10567,7 +10563,7 @@
         <v>1681.48</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J235" s="3">
         <v>2</v>
@@ -10610,7 +10606,7 @@
         <v>1681.48</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J236" s="3">
         <v>3</v>
@@ -10653,7 +10649,7 @@
         <v>1681.48</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J237" s="3">
         <v>4</v>
@@ -10696,7 +10692,7 @@
         <v>3362.96</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J238" s="3">
         <v>1</v>
@@ -10739,7 +10735,7 @@
         <v>3362.96</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J239" s="3">
         <v>2</v>
@@ -10782,7 +10778,7 @@
         <v>3362.96</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J240" s="3">
         <v>3</v>
@@ -10825,7 +10821,7 @@
         <v>3362.96</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J241" s="3">
         <v>4</v>
@@ -10868,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J242" s="3">
         <v>1</v>
@@ -10910,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J243" s="3">
         <v>2</v>
@@ -10952,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J244" s="3">
         <v>3</v>
@@ -10994,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J245" s="3">
         <v>4</v>
@@ -11036,7 +11032,7 @@
         <v>13.14</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J246" s="3">
         <v>1</v>
@@ -11078,7 +11074,7 @@
         <v>13.14</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J247" s="3">
         <v>2</v>
@@ -11120,7 +11116,7 @@
         <v>13.14</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J248" s="3">
         <v>3</v>
@@ -11163,7 +11159,7 @@
         <v>13.14</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J249" s="3">
         <v>4</v>
@@ -11206,7 +11202,7 @@
         <v>26.27</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J250" s="3">
         <v>1</v>
@@ -11249,7 +11245,7 @@
         <v>26.27</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J251" s="3">
         <v>2</v>
@@ -11292,7 +11288,7 @@
         <v>26.27</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J252" s="3">
         <v>3</v>
@@ -11335,7 +11331,7 @@
         <v>26.27</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J253" s="3">
         <v>4</v>
@@ -11378,7 +11374,7 @@
         <v>52.55</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J254" s="3">
         <v>1</v>
@@ -11421,7 +11417,7 @@
         <v>52.55</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J255" s="3">
         <v>2</v>
@@ -11463,7 +11459,7 @@
         <v>52.55</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J256" s="3">
         <v>3</v>
@@ -11506,7 +11502,7 @@
         <v>52.55</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J257" s="3">
         <v>4</v>
@@ -11549,7 +11545,7 @@
         <v>105.09</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J258" s="3">
         <v>1</v>
@@ -11592,7 +11588,7 @@
         <v>105.09</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J259" s="3">
         <v>2</v>
@@ -11635,7 +11631,7 @@
         <v>105.09</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J260" s="3">
         <v>3</v>
@@ -11678,7 +11674,7 @@
         <v>105.09</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J261" s="3">
         <v>4</v>
@@ -11721,7 +11717,7 @@
         <v>210.19</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J262" s="3">
         <v>1</v>
@@ -11764,7 +11760,7 @@
         <v>210.19</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J263" s="3">
         <v>2</v>
@@ -11807,7 +11803,7 @@
         <v>210.19</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J264" s="3">
         <v>3</v>
@@ -11850,7 +11846,7 @@
         <v>210.19</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J265" s="3">
         <v>4</v>
@@ -11893,7 +11889,7 @@
         <v>420.37</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J266" s="3">
         <v>1</v>
@@ -11935,7 +11931,7 @@
         <v>420.37</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J267" s="3">
         <v>2</v>
@@ -11977,7 +11973,7 @@
         <v>420.37</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J268" s="3">
         <v>3</v>
@@ -12020,7 +12016,7 @@
         <v>420.37</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J269" s="3">
         <v>4</v>
@@ -12063,7 +12059,7 @@
         <v>840.74</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J270" s="3">
         <v>1</v>
@@ -12106,7 +12102,7 @@
         <v>840.74</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J271" s="3">
         <v>2</v>
@@ -12149,7 +12145,7 @@
         <v>840.74</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J272" s="3">
         <v>3</v>
@@ -12192,7 +12188,7 @@
         <v>840.74</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J273" s="3">
         <v>4</v>
@@ -12234,7 +12230,7 @@
         <v>1681.48</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J274" s="3">
         <v>1</v>
@@ -12277,7 +12273,7 @@
         <v>1681.48</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J275" s="3">
         <v>2</v>
@@ -12320,7 +12316,7 @@
         <v>1681.48</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J276" s="3">
         <v>3</v>
@@ -12363,7 +12359,7 @@
         <v>1681.48</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J277" s="3">
         <v>4</v>
@@ -12406,7 +12402,7 @@
         <v>3362.96</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J278" s="3">
         <v>1</v>
@@ -12449,7 +12445,7 @@
         <v>3362.96</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J279" s="3">
         <v>2</v>
@@ -12492,7 +12488,7 @@
         <v>3362.96</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J280" s="3">
         <v>3</v>
@@ -12535,7 +12531,7 @@
         <v>3362.96</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J281" s="3">
         <v>4</v>
@@ -12578,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J282" s="3">
         <v>1</v>
@@ -12620,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J283" s="3">
         <v>2</v>
@@ -12662,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J284" s="3">
         <v>3</v>
@@ -12704,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J285" s="3">
         <v>4</v>
@@ -12746,7 +12742,7 @@
         <v>13.14</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J286" s="3">
         <v>1</v>
@@ -12789,7 +12785,7 @@
         <v>13.14</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J287" s="3">
         <v>2</v>
@@ -12832,7 +12828,7 @@
         <v>13.14</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J288" s="3">
         <v>3</v>
@@ -12875,7 +12871,7 @@
         <v>13.14</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J289" s="3">
         <v>4</v>
@@ -12918,7 +12914,7 @@
         <v>26.27</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J290" s="3">
         <v>1</v>
@@ -12961,7 +12957,7 @@
         <v>26.27</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J291" s="3">
         <v>2</v>
@@ -13003,7 +12999,7 @@
         <v>26.27</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J292" s="3">
         <v>3</v>
@@ -13046,7 +13042,7 @@
         <v>26.27</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J293" s="3">
         <v>4</v>
@@ -13088,7 +13084,7 @@
         <v>52.55</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J294" s="3">
         <v>1</v>
@@ -13131,7 +13127,7 @@
         <v>52.55</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J295" s="3">
         <v>2</v>
@@ -13173,7 +13169,7 @@
         <v>52.55</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J296" s="3">
         <v>3</v>
@@ -13216,7 +13212,7 @@
         <v>52.55</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J297" s="3">
         <v>4</v>
@@ -13259,7 +13255,7 @@
         <v>105.09</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J298" s="3">
         <v>1</v>
@@ -13301,7 +13297,7 @@
         <v>105.09</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J299" s="3">
         <v>2</v>
@@ -13344,7 +13340,7 @@
         <v>105.09</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J300" s="3">
         <v>3</v>
@@ -13386,7 +13382,7 @@
         <v>105.09</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J301" s="3">
         <v>4</v>
@@ -13428,7 +13424,7 @@
         <v>210.19</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J302" s="3">
         <v>1</v>
@@ -13471,7 +13467,7 @@
         <v>210.19</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J303" s="3">
         <v>2</v>
@@ -13513,7 +13509,7 @@
         <v>210.19</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J304" s="3">
         <v>3</v>
@@ -13555,7 +13551,7 @@
         <v>210.19</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J305" s="3">
         <v>4</v>
@@ -13598,7 +13594,7 @@
         <v>420.37</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J306" s="3">
         <v>1</v>
@@ -13640,7 +13636,7 @@
         <v>420.37</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J307" s="3">
         <v>2</v>
@@ -13683,7 +13679,7 @@
         <v>420.37</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J308" s="3">
         <v>3</v>
@@ -13726,7 +13722,7 @@
         <v>420.37</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J309" s="3">
         <v>4</v>
@@ -13769,7 +13765,7 @@
         <v>840.74</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J310" s="3">
         <v>1</v>
@@ -13812,7 +13808,7 @@
         <v>840.74</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J311" s="3">
         <v>2</v>
@@ -13855,7 +13851,7 @@
         <v>840.74</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J312" s="3">
         <v>3</v>
@@ -13898,7 +13894,7 @@
         <v>840.74</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J313" s="3">
         <v>4</v>
@@ -13941,7 +13937,7 @@
         <v>1681.48</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J314" s="3">
         <v>1</v>
@@ -13984,7 +13980,7 @@
         <v>1681.48</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J315" s="3">
         <v>2</v>
@@ -14027,7 +14023,7 @@
         <v>1681.48</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J316" s="3">
         <v>3</v>
@@ -14070,7 +14066,7 @@
         <v>1681.48</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J317" s="3">
         <v>4</v>
@@ -14113,7 +14109,7 @@
         <v>3362.96</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J318" s="3">
         <v>1</v>
@@ -14156,7 +14152,7 @@
         <v>3362.96</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J319" s="3">
         <v>2</v>
@@ -14198,7 +14194,7 @@
         <v>3362.96</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J320" s="3">
         <v>3</v>
@@ -14241,7 +14237,7 @@
         <v>3362.96</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J321" s="3">
         <v>4</v>
@@ -14274,7 +14270,7 @@
       </c>
       <c r="F322" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>8</v>
@@ -14283,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J322" s="3">
         <v>1</v>
@@ -14316,7 +14312,7 @@
       </c>
       <c r="F323" s="3" t="str">
         <f t="shared" ref="F323:F386" si="13">_xlfn.CONCAT(D323, "+", E323, "+", I323)</f>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>8</v>
@@ -14325,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J323" s="3">
         <v>2</v>
@@ -14358,7 +14354,7 @@
       </c>
       <c r="F324" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>8</v>
@@ -14367,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J324" s="3">
         <v>3</v>
@@ -14400,7 +14396,7 @@
       </c>
       <c r="F325" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>8</v>
@@ -14409,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J325" s="3">
         <v>4</v>
@@ -14442,7 +14438,7 @@
       </c>
       <c r="F326" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>18</v>
@@ -14451,7 +14447,7 @@
         <v>13.14</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J326" s="3">
         <v>1</v>
@@ -14484,7 +14480,7 @@
       </c>
       <c r="F327" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>18</v>
@@ -14493,7 +14489,7 @@
         <v>13.14</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J327" s="3">
         <v>2</v>
@@ -14526,7 +14522,7 @@
       </c>
       <c r="F328" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>18</v>
@@ -14535,7 +14531,7 @@
         <v>13.14</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J328" s="3">
         <v>3</v>
@@ -14568,7 +14564,7 @@
       </c>
       <c r="F329" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>18</v>
@@ -14577,7 +14573,7 @@
         <v>13.14</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J329" s="3">
         <v>4</v>
@@ -14611,7 +14607,7 @@
       </c>
       <c r="F330" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>19</v>
@@ -14620,7 +14616,7 @@
         <v>26.27</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J330" s="3">
         <v>1</v>
@@ -14654,7 +14650,7 @@
       </c>
       <c r="F331" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G331" s="3" t="s">
         <v>19</v>
@@ -14663,7 +14659,7 @@
         <v>26.27</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J331" s="3">
         <v>2</v>
@@ -14696,7 +14692,7 @@
       </c>
       <c r="F332" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>19</v>
@@ -14705,7 +14701,7 @@
         <v>26.27</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J332" s="3">
         <v>3</v>
@@ -14739,7 +14735,7 @@
       </c>
       <c r="F333" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>19</v>
@@ -14748,7 +14744,7 @@
         <v>26.27</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J333" s="3">
         <v>4</v>
@@ -14782,7 +14778,7 @@
       </c>
       <c r="F334" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>20</v>
@@ -14791,7 +14787,7 @@
         <v>52.55</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J334" s="3">
         <v>1</v>
@@ -14825,7 +14821,7 @@
       </c>
       <c r="F335" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G335" s="3" t="s">
         <v>20</v>
@@ -14834,7 +14830,7 @@
         <v>52.55</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J335" s="3">
         <v>2</v>
@@ -14867,7 +14863,7 @@
       </c>
       <c r="F336" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>20</v>
@@ -14876,7 +14872,7 @@
         <v>52.55</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J336" s="3">
         <v>3</v>
@@ -14910,7 +14906,7 @@
       </c>
       <c r="F337" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>20</v>
@@ -14919,7 +14915,7 @@
         <v>52.55</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J337" s="3">
         <v>4</v>
@@ -14953,7 +14949,7 @@
       </c>
       <c r="F338" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>9</v>
@@ -14962,7 +14958,7 @@
         <v>105.09</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J338" s="3">
         <v>1</v>
@@ -14996,7 +14992,7 @@
       </c>
       <c r="F339" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>9</v>
@@ -15005,7 +15001,7 @@
         <v>105.09</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J339" s="3">
         <v>2</v>
@@ -15038,7 +15034,7 @@
       </c>
       <c r="F340" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>9</v>
@@ -15047,7 +15043,7 @@
         <v>105.09</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J340" s="3">
         <v>3</v>
@@ -15081,7 +15077,7 @@
       </c>
       <c r="F341" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>9</v>
@@ -15090,7 +15086,7 @@
         <v>105.09</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J341" s="3">
         <v>4</v>
@@ -15123,7 +15119,7 @@
       </c>
       <c r="F342" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G342" s="3" t="s">
         <v>10</v>
@@ -15132,7 +15128,7 @@
         <v>210.19</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J342" s="3">
         <v>1</v>
@@ -15166,7 +15162,7 @@
       </c>
       <c r="F343" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>10</v>
@@ -15175,7 +15171,7 @@
         <v>210.19</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J343" s="3">
         <v>2</v>
@@ -15209,7 +15205,7 @@
       </c>
       <c r="F344" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>10</v>
@@ -15218,7 +15214,7 @@
         <v>210.19</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J344" s="3">
         <v>3</v>
@@ -15252,7 +15248,7 @@
       </c>
       <c r="F345" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>10</v>
@@ -15261,7 +15257,7 @@
         <v>210.19</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J345" s="3">
         <v>4</v>
@@ -15295,7 +15291,7 @@
       </c>
       <c r="F346" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>11</v>
@@ -15304,7 +15300,7 @@
         <v>420.37</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J346" s="3">
         <v>1</v>
@@ -15338,7 +15334,7 @@
       </c>
       <c r="F347" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>11</v>
@@ -15347,7 +15343,7 @@
         <v>420.37</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J347" s="3">
         <v>2</v>
@@ -15381,7 +15377,7 @@
       </c>
       <c r="F348" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>11</v>
@@ -15390,7 +15386,7 @@
         <v>420.37</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J348" s="3">
         <v>3</v>
@@ -15424,7 +15420,7 @@
       </c>
       <c r="F349" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>11</v>
@@ -15433,7 +15429,7 @@
         <v>420.37</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J349" s="3">
         <v>4</v>
@@ -15467,7 +15463,7 @@
       </c>
       <c r="F350" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>12</v>
@@ -15476,7 +15472,7 @@
         <v>840.74</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J350" s="3">
         <v>1</v>
@@ -15510,7 +15506,7 @@
       </c>
       <c r="F351" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>12</v>
@@ -15519,7 +15515,7 @@
         <v>840.74</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J351" s="3">
         <v>2</v>
@@ -15553,7 +15549,7 @@
       </c>
       <c r="F352" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>12</v>
@@ -15562,7 +15558,7 @@
         <v>840.74</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J352" s="3">
         <v>3</v>
@@ -15596,7 +15592,7 @@
       </c>
       <c r="F353" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>12</v>
@@ -15605,7 +15601,7 @@
         <v>840.74</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J353" s="3">
         <v>4</v>
@@ -15639,7 +15635,7 @@
       </c>
       <c r="F354" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>13</v>
@@ -15648,7 +15644,7 @@
         <v>1681.48</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J354" s="3">
         <v>1</v>
@@ -15682,7 +15678,7 @@
       </c>
       <c r="F355" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>13</v>
@@ -15691,7 +15687,7 @@
         <v>1681.48</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J355" s="3">
         <v>2</v>
@@ -15725,7 +15721,7 @@
       </c>
       <c r="F356" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>13</v>
@@ -15734,7 +15730,7 @@
         <v>1681.48</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J356" s="3">
         <v>3</v>
@@ -15768,7 +15764,7 @@
       </c>
       <c r="F357" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>13</v>
@@ -15777,7 +15773,7 @@
         <v>1681.48</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J357" s="3">
         <v>4</v>
@@ -15811,7 +15807,7 @@
       </c>
       <c r="F358" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>14</v>
@@ -15820,7 +15816,7 @@
         <v>3362.96</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J358" s="3">
         <v>1</v>
@@ -15854,7 +15850,7 @@
       </c>
       <c r="F359" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>14</v>
@@ -15863,7 +15859,7 @@
         <v>3362.96</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J359" s="3">
         <v>2</v>
@@ -15897,7 +15893,7 @@
       </c>
       <c r="F360" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G360" s="3" t="s">
         <v>14</v>
@@ -15906,7 +15902,7 @@
         <v>3362.96</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J360" s="3">
         <v>3</v>
@@ -15940,7 +15936,7 @@
       </c>
       <c r="F361" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>A106+gly+elevated</v>
+        <v>A106+gly+increased</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>14</v>
@@ -15949,7 +15945,7 @@
         <v>3362.96</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J361" s="3">
         <v>4</v>
@@ -15992,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J362" s="3">
         <v>1</v>
@@ -16034,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J363" s="3">
         <v>2</v>
@@ -16076,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J364" s="3">
         <v>3</v>
@@ -16118,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J365" s="3">
         <v>4</v>
@@ -16160,7 +16156,7 @@
         <v>13.14</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J366" s="3">
         <v>1</v>
@@ -16202,7 +16198,7 @@
         <v>13.14</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J367" s="3">
         <v>2</v>
@@ -16245,7 +16241,7 @@
         <v>13.14</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J368" s="3">
         <v>3</v>
@@ -16288,7 +16284,7 @@
         <v>13.14</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J369" s="3">
         <v>4</v>
@@ -16331,7 +16327,7 @@
         <v>26.27</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J370" s="3">
         <v>1</v>
@@ -16373,7 +16369,7 @@
         <v>26.27</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J371" s="3">
         <v>2</v>
@@ -16416,7 +16412,7 @@
         <v>26.27</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J372" s="3">
         <v>3</v>
@@ -16459,7 +16455,7 @@
         <v>26.27</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J373" s="3">
         <v>4</v>
@@ -16502,7 +16498,7 @@
         <v>52.55</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J374" s="3">
         <v>1</v>
@@ -16545,7 +16541,7 @@
         <v>52.55</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J375" s="3">
         <v>2</v>
@@ -16588,7 +16584,7 @@
         <v>52.55</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J376" s="3">
         <v>3</v>
@@ -16630,7 +16626,7 @@
         <v>52.55</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J377" s="3">
         <v>4</v>
@@ -16673,7 +16669,7 @@
         <v>105.09</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J378" s="3">
         <v>1</v>
@@ -16716,7 +16712,7 @@
         <v>105.09</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J379" s="3">
         <v>2</v>
@@ -16759,7 +16755,7 @@
         <v>105.09</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J380" s="3">
         <v>3</v>
@@ -16802,7 +16798,7 @@
         <v>105.09</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J381" s="3">
         <v>4</v>
@@ -16845,7 +16841,7 @@
         <v>210.19</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J382" s="3">
         <v>1</v>
@@ -16888,7 +16884,7 @@
         <v>210.19</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J383" s="3">
         <v>2</v>
@@ -16931,7 +16927,7 @@
         <v>210.19</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J384" s="3">
         <v>3</v>
@@ -16974,7 +16970,7 @@
         <v>210.19</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J385" s="3">
         <v>4</v>
@@ -17017,7 +17013,7 @@
         <v>420.37</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J386" s="3">
         <v>1</v>
@@ -17060,7 +17056,7 @@
         <v>420.37</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J387" s="3">
         <v>2</v>
@@ -17103,7 +17099,7 @@
         <v>420.37</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J388" s="3">
         <v>3</v>
@@ -17146,7 +17142,7 @@
         <v>420.37</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J389" s="3">
         <v>4</v>
@@ -17189,7 +17185,7 @@
         <v>840.74</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J390" s="3">
         <v>1</v>
@@ -17232,7 +17228,7 @@
         <v>840.74</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J391" s="3">
         <v>2</v>
@@ -17275,7 +17271,7 @@
         <v>840.74</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J392" s="3">
         <v>3</v>
@@ -17318,7 +17314,7 @@
         <v>840.74</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J393" s="3">
         <v>4</v>
@@ -17361,7 +17357,7 @@
         <v>1681.48</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J394" s="3">
         <v>1</v>
@@ -17404,7 +17400,7 @@
         <v>1681.48</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J395" s="3">
         <v>2</v>
@@ -17447,7 +17443,7 @@
         <v>1681.48</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J396" s="3">
         <v>3</v>
@@ -17490,7 +17486,7 @@
         <v>1681.48</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J397" s="3">
         <v>4</v>
@@ -17533,7 +17529,7 @@
         <v>3362.96</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J398" s="3">
         <v>1</v>
@@ -17576,7 +17572,7 @@
         <v>3362.96</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J399" s="3">
         <v>2</v>
@@ -17619,7 +17615,7 @@
         <v>3362.96</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J400" s="3">
         <v>3</v>
@@ -17662,7 +17658,7 @@
         <v>3362.96</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J401" s="3">
         <v>4</v>
@@ -17696,7 +17692,7 @@
       </c>
       <c r="F402" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>8</v>
@@ -17705,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J402" s="3">
         <v>1</v>
@@ -17738,7 +17734,7 @@
       </c>
       <c r="F403" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>8</v>
@@ -17747,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J403" s="3">
         <v>2</v>
@@ -17780,7 +17776,7 @@
       </c>
       <c r="F404" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>8</v>
@@ -17789,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J404" s="3">
         <v>3</v>
@@ -17822,7 +17818,7 @@
       </c>
       <c r="F405" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>8</v>
@@ -17831,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J405" s="3">
         <v>4</v>
@@ -17864,7 +17860,7 @@
       </c>
       <c r="F406" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>18</v>
@@ -17873,7 +17869,7 @@
         <v>13.14</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J406" s="3">
         <v>1</v>
@@ -17907,7 +17903,7 @@
       </c>
       <c r="F407" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>18</v>
@@ -17916,7 +17912,7 @@
         <v>13.14</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J407" s="3">
         <v>2</v>
@@ -17949,7 +17945,7 @@
       </c>
       <c r="F408" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>18</v>
@@ -17958,7 +17954,7 @@
         <v>13.14</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J408" s="3">
         <v>3</v>
@@ -17992,7 +17988,7 @@
       </c>
       <c r="F409" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>18</v>
@@ -18001,7 +17997,7 @@
         <v>13.14</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J409" s="3">
         <v>4</v>
@@ -18034,7 +18030,7 @@
       </c>
       <c r="F410" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>19</v>
@@ -18043,7 +18039,7 @@
         <v>26.27</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J410" s="3">
         <v>1</v>
@@ -18076,7 +18072,7 @@
       </c>
       <c r="F411" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>19</v>
@@ -18085,7 +18081,7 @@
         <v>26.27</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J411" s="3">
         <v>2</v>
@@ -18119,7 +18115,7 @@
       </c>
       <c r="F412" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>19</v>
@@ -18128,7 +18124,7 @@
         <v>26.27</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J412" s="3">
         <v>3</v>
@@ -18161,7 +18157,7 @@
       </c>
       <c r="F413" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>19</v>
@@ -18170,7 +18166,7 @@
         <v>26.27</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J413" s="3">
         <v>4</v>
@@ -18204,7 +18200,7 @@
       </c>
       <c r="F414" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>20</v>
@@ -18213,7 +18209,7 @@
         <v>52.55</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J414" s="3">
         <v>1</v>
@@ -18247,7 +18243,7 @@
       </c>
       <c r="F415" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>20</v>
@@ -18256,7 +18252,7 @@
         <v>52.55</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J415" s="3">
         <v>2</v>
@@ -18290,7 +18286,7 @@
       </c>
       <c r="F416" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>20</v>
@@ -18299,7 +18295,7 @@
         <v>52.55</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J416" s="3">
         <v>3</v>
@@ -18333,7 +18329,7 @@
       </c>
       <c r="F417" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>20</v>
@@ -18342,7 +18338,7 @@
         <v>52.55</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J417" s="3">
         <v>4</v>
@@ -18376,7 +18372,7 @@
       </c>
       <c r="F418" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>9</v>
@@ -18385,7 +18381,7 @@
         <v>105.09</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J418" s="3">
         <v>1</v>
@@ -18419,7 +18415,7 @@
       </c>
       <c r="F419" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>9</v>
@@ -18428,7 +18424,7 @@
         <v>105.09</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J419" s="3">
         <v>2</v>
@@ -18462,7 +18458,7 @@
       </c>
       <c r="F420" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>9</v>
@@ -18471,7 +18467,7 @@
         <v>105.09</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J420" s="3">
         <v>3</v>
@@ -18505,7 +18501,7 @@
       </c>
       <c r="F421" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>9</v>
@@ -18514,7 +18510,7 @@
         <v>105.09</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J421" s="3">
         <v>4</v>
@@ -18548,7 +18544,7 @@
       </c>
       <c r="F422" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>10</v>
@@ -18557,7 +18553,7 @@
         <v>210.19</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J422" s="3">
         <v>1</v>
@@ -18591,7 +18587,7 @@
       </c>
       <c r="F423" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>10</v>
@@ -18600,7 +18596,7 @@
         <v>210.19</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J423" s="3">
         <v>2</v>
@@ -18634,7 +18630,7 @@
       </c>
       <c r="F424" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>10</v>
@@ -18643,7 +18639,7 @@
         <v>210.19</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J424" s="3">
         <v>3</v>
@@ -18677,7 +18673,7 @@
       </c>
       <c r="F425" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>10</v>
@@ -18686,7 +18682,7 @@
         <v>210.19</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J425" s="3">
         <v>4</v>
@@ -18719,7 +18715,7 @@
       </c>
       <c r="F426" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>11</v>
@@ -18728,7 +18724,7 @@
         <v>420.37</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J426" s="3">
         <v>1</v>
@@ -18762,7 +18758,7 @@
       </c>
       <c r="F427" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>11</v>
@@ -18771,7 +18767,7 @@
         <v>420.37</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J427" s="3">
         <v>2</v>
@@ -18805,7 +18801,7 @@
       </c>
       <c r="F428" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>11</v>
@@ -18814,7 +18810,7 @@
         <v>420.37</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J428" s="3">
         <v>3</v>
@@ -18848,7 +18844,7 @@
       </c>
       <c r="F429" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>11</v>
@@ -18857,7 +18853,7 @@
         <v>420.37</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J429" s="3">
         <v>4</v>
@@ -18891,7 +18887,7 @@
       </c>
       <c r="F430" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>12</v>
@@ -18900,7 +18896,7 @@
         <v>840.74</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J430" s="3">
         <v>1</v>
@@ -18934,7 +18930,7 @@
       </c>
       <c r="F431" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>12</v>
@@ -18943,7 +18939,7 @@
         <v>840.74</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J431" s="3">
         <v>2</v>
@@ -18977,7 +18973,7 @@
       </c>
       <c r="F432" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>12</v>
@@ -18986,7 +18982,7 @@
         <v>840.74</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J432" s="3">
         <v>3</v>
@@ -19020,7 +19016,7 @@
       </c>
       <c r="F433" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>12</v>
@@ -19029,7 +19025,7 @@
         <v>840.74</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J433" s="3">
         <v>4</v>
@@ -19063,7 +19059,7 @@
       </c>
       <c r="F434" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>13</v>
@@ -19072,7 +19068,7 @@
         <v>1681.48</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J434" s="3">
         <v>1</v>
@@ -19106,7 +19102,7 @@
       </c>
       <c r="F435" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>13</v>
@@ -19115,7 +19111,7 @@
         <v>1681.48</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J435" s="3">
         <v>2</v>
@@ -19149,7 +19145,7 @@
       </c>
       <c r="F436" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>13</v>
@@ -19158,7 +19154,7 @@
         <v>1681.48</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J436" s="3">
         <v>3</v>
@@ -19192,7 +19188,7 @@
       </c>
       <c r="F437" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>13</v>
@@ -19201,7 +19197,7 @@
         <v>1681.48</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J437" s="3">
         <v>4</v>
@@ -19235,7 +19231,7 @@
       </c>
       <c r="F438" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>14</v>
@@ -19244,7 +19240,7 @@
         <v>3362.96</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J438" s="3">
         <v>1</v>
@@ -19278,7 +19274,7 @@
       </c>
       <c r="F439" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>14</v>
@@ -19287,7 +19283,7 @@
         <v>3362.96</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J439" s="3">
         <v>2</v>
@@ -19321,7 +19317,7 @@
       </c>
       <c r="F440" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>14</v>
@@ -19330,7 +19326,7 @@
         <v>3362.96</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J440" s="3">
         <v>3</v>
@@ -19364,7 +19360,7 @@
       </c>
       <c r="F441" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+elevated</v>
+        <v>A101+gly+increased</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>14</v>
@@ -19373,7 +19369,7 @@
         <v>3362.96</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J441" s="3">
         <v>4</v>
@@ -19407,7 +19403,7 @@
       </c>
       <c r="F442" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>8</v>
@@ -19416,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J442" s="3">
         <v>1</v>
@@ -19449,7 +19445,7 @@
       </c>
       <c r="F443" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>8</v>
@@ -19458,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J443" s="3">
         <v>2</v>
@@ -19491,7 +19487,7 @@
       </c>
       <c r="F444" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>8</v>
@@ -19500,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J444" s="3">
         <v>3</v>
@@ -19533,7 +19529,7 @@
       </c>
       <c r="F445" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>8</v>
@@ -19542,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J445" s="3">
         <v>4</v>
@@ -19575,7 +19571,7 @@
       </c>
       <c r="F446" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>18</v>
@@ -19584,7 +19580,7 @@
         <v>13.14</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J446" s="3">
         <v>1</v>
@@ -19618,7 +19614,7 @@
       </c>
       <c r="F447" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>18</v>
@@ -19627,7 +19623,7 @@
         <v>13.14</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J447" s="3">
         <v>2</v>
@@ -19661,7 +19657,7 @@
       </c>
       <c r="F448" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>18</v>
@@ -19670,7 +19666,7 @@
         <v>13.14</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J448" s="3">
         <v>3</v>
@@ -19703,7 +19699,7 @@
       </c>
       <c r="F449" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>18</v>
@@ -19712,7 +19708,7 @@
         <v>13.14</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J449" s="3">
         <v>4</v>
@@ -19745,7 +19741,7 @@
       </c>
       <c r="F450" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>19</v>
@@ -19754,7 +19750,7 @@
         <v>26.27</v>
       </c>
       <c r="I450" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J450" s="3">
         <v>1</v>
@@ -19787,7 +19783,7 @@
       </c>
       <c r="F451" s="3" t="str">
         <f t="shared" ref="F451:F514" si="19">_xlfn.CONCAT(D451, "+", E451, "+", I451)</f>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>19</v>
@@ -19796,7 +19792,7 @@
         <v>26.27</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J451" s="3">
         <v>2</v>
@@ -19830,7 +19826,7 @@
       </c>
       <c r="F452" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>19</v>
@@ -19839,7 +19835,7 @@
         <v>26.27</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J452" s="3">
         <v>3</v>
@@ -19872,7 +19868,7 @@
       </c>
       <c r="F453" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>19</v>
@@ -19881,7 +19877,7 @@
         <v>26.27</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J453" s="3">
         <v>4</v>
@@ -19914,7 +19910,7 @@
       </c>
       <c r="F454" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>20</v>
@@ -19923,7 +19919,7 @@
         <v>52.55</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J454" s="3">
         <v>1</v>
@@ -19956,7 +19952,7 @@
       </c>
       <c r="F455" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>20</v>
@@ -19965,7 +19961,7 @@
         <v>52.55</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J455" s="3">
         <v>2</v>
@@ -19998,7 +19994,7 @@
       </c>
       <c r="F456" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>20</v>
@@ -20007,7 +20003,7 @@
         <v>52.55</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J456" s="3">
         <v>3</v>
@@ -20041,7 +20037,7 @@
       </c>
       <c r="F457" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G457" s="3" t="s">
         <v>20</v>
@@ -20050,7 +20046,7 @@
         <v>52.55</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J457" s="3">
         <v>4</v>
@@ -20083,7 +20079,7 @@
       </c>
       <c r="F458" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G458" s="3" t="s">
         <v>9</v>
@@ -20092,7 +20088,7 @@
         <v>105.09</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J458" s="3">
         <v>1</v>
@@ -20126,7 +20122,7 @@
       </c>
       <c r="F459" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>9</v>
@@ -20135,7 +20131,7 @@
         <v>105.09</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J459" s="3">
         <v>2</v>
@@ -20169,7 +20165,7 @@
       </c>
       <c r="F460" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>9</v>
@@ -20178,7 +20174,7 @@
         <v>105.09</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J460" s="3">
         <v>3</v>
@@ -20212,7 +20208,7 @@
       </c>
       <c r="F461" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>9</v>
@@ -20221,7 +20217,7 @@
         <v>105.09</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J461" s="3">
         <v>4</v>
@@ -20255,7 +20251,7 @@
       </c>
       <c r="F462" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G462" s="3" t="s">
         <v>10</v>
@@ -20264,7 +20260,7 @@
         <v>210.19</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J462" s="3">
         <v>1</v>
@@ -20298,7 +20294,7 @@
       </c>
       <c r="F463" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G463" s="3" t="s">
         <v>10</v>
@@ -20307,7 +20303,7 @@
         <v>210.19</v>
       </c>
       <c r="I463" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J463" s="3">
         <v>2</v>
@@ -20340,7 +20336,7 @@
       </c>
       <c r="F464" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G464" s="3" t="s">
         <v>10</v>
@@ -20349,7 +20345,7 @@
         <v>210.19</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J464" s="3">
         <v>3</v>
@@ -20383,7 +20379,7 @@
       </c>
       <c r="F465" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G465" s="3" t="s">
         <v>10</v>
@@ -20392,7 +20388,7 @@
         <v>210.19</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J465" s="3">
         <v>4</v>
@@ -20426,7 +20422,7 @@
       </c>
       <c r="F466" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>11</v>
@@ -20435,7 +20431,7 @@
         <v>420.37</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J466" s="3">
         <v>1</v>
@@ -20469,7 +20465,7 @@
       </c>
       <c r="F467" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>11</v>
@@ -20478,7 +20474,7 @@
         <v>420.37</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J467" s="3">
         <v>2</v>
@@ -20512,7 +20508,7 @@
       </c>
       <c r="F468" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G468" s="3" t="s">
         <v>11</v>
@@ -20521,7 +20517,7 @@
         <v>420.37</v>
       </c>
       <c r="I468" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J468" s="3">
         <v>3</v>
@@ -20555,7 +20551,7 @@
       </c>
       <c r="F469" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>11</v>
@@ -20564,7 +20560,7 @@
         <v>420.37</v>
       </c>
       <c r="I469" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J469" s="3">
         <v>4</v>
@@ -20598,7 +20594,7 @@
       </c>
       <c r="F470" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>12</v>
@@ -20607,7 +20603,7 @@
         <v>840.74</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J470" s="3">
         <v>1</v>
@@ -20641,7 +20637,7 @@
       </c>
       <c r="F471" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>12</v>
@@ -20650,7 +20646,7 @@
         <v>840.74</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J471" s="3">
         <v>2</v>
@@ -20684,7 +20680,7 @@
       </c>
       <c r="F472" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>12</v>
@@ -20693,7 +20689,7 @@
         <v>840.74</v>
       </c>
       <c r="I472" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J472" s="3">
         <v>3</v>
@@ -20727,7 +20723,7 @@
       </c>
       <c r="F473" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>12</v>
@@ -20736,7 +20732,7 @@
         <v>840.74</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J473" s="3">
         <v>4</v>
@@ -20770,7 +20766,7 @@
       </c>
       <c r="F474" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>13</v>
@@ -20779,7 +20775,7 @@
         <v>1681.48</v>
       </c>
       <c r="I474" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J474" s="3">
         <v>1</v>
@@ -20813,7 +20809,7 @@
       </c>
       <c r="F475" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G475" s="3" t="s">
         <v>13</v>
@@ -20822,7 +20818,7 @@
         <v>1681.48</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J475" s="3">
         <v>2</v>
@@ -20855,7 +20851,7 @@
       </c>
       <c r="F476" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>13</v>
@@ -20864,7 +20860,7 @@
         <v>1681.48</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J476" s="3">
         <v>3</v>
@@ -20898,7 +20894,7 @@
       </c>
       <c r="F477" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G477" s="3" t="s">
         <v>13</v>
@@ -20907,7 +20903,7 @@
         <v>1681.48</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J477" s="3">
         <v>4</v>
@@ -20941,7 +20937,7 @@
       </c>
       <c r="F478" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>14</v>
@@ -20950,7 +20946,7 @@
         <v>3362.96</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J478" s="3">
         <v>1</v>
@@ -20984,7 +20980,7 @@
       </c>
       <c r="F479" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>14</v>
@@ -20993,7 +20989,7 @@
         <v>3362.96</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J479" s="3">
         <v>2</v>
@@ -21027,7 +21023,7 @@
       </c>
       <c r="F480" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>14</v>
@@ -21036,7 +21032,7 @@
         <v>3362.96</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J480" s="3">
         <v>3</v>
@@ -21070,7 +21066,7 @@
       </c>
       <c r="F481" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+P450+elevated</v>
+        <v>A101+gly+P450+increased</v>
       </c>
       <c r="G481" s="3" t="s">
         <v>14</v>
@@ -21079,7 +21075,7 @@
         <v>3362.96</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J481" s="3">
         <v>4</v>
@@ -21113,7 +21109,7 @@
       </c>
       <c r="F482" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>8</v>
@@ -21122,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J482" s="3">
         <v>1</v>
@@ -21155,7 +21151,7 @@
       </c>
       <c r="F483" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G483" s="3" t="s">
         <v>8</v>
@@ -21164,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J483" s="3">
         <v>2</v>
@@ -21197,7 +21193,7 @@
       </c>
       <c r="F484" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G484" s="3" t="s">
         <v>8</v>
@@ -21206,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J484" s="3">
         <v>3</v>
@@ -21239,7 +21235,7 @@
       </c>
       <c r="F485" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>8</v>
@@ -21248,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="I485" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J485" s="3">
         <v>4</v>
@@ -21281,7 +21277,7 @@
       </c>
       <c r="F486" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G486" s="3" t="s">
         <v>18</v>
@@ -21290,7 +21286,7 @@
         <v>13.14</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J486" s="3">
         <v>1</v>
@@ -21323,7 +21319,7 @@
       </c>
       <c r="F487" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>18</v>
@@ -21332,7 +21328,7 @@
         <v>13.14</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J487" s="3">
         <v>2</v>
@@ -21366,7 +21362,7 @@
       </c>
       <c r="F488" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>18</v>
@@ -21375,7 +21371,7 @@
         <v>13.14</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J488" s="3">
         <v>3</v>
@@ -21408,7 +21404,7 @@
       </c>
       <c r="F489" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>18</v>
@@ -21417,7 +21413,7 @@
         <v>13.14</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J489" s="3">
         <v>4</v>
@@ -21451,7 +21447,7 @@
       </c>
       <c r="F490" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G490" s="3" t="s">
         <v>19</v>
@@ -21460,7 +21456,7 @@
         <v>26.27</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J490" s="3">
         <v>1</v>
@@ -21494,7 +21490,7 @@
       </c>
       <c r="F491" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>19</v>
@@ -21503,7 +21499,7 @@
         <v>26.27</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J491" s="3">
         <v>2</v>
@@ -21537,7 +21533,7 @@
       </c>
       <c r="F492" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>19</v>
@@ -21546,7 +21542,7 @@
         <v>26.27</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J492" s="3">
         <v>3</v>
@@ -21579,7 +21575,7 @@
       </c>
       <c r="F493" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>19</v>
@@ -21588,7 +21584,7 @@
         <v>26.27</v>
       </c>
       <c r="I493" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J493" s="3">
         <v>4</v>
@@ -21622,7 +21618,7 @@
       </c>
       <c r="F494" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>20</v>
@@ -21631,7 +21627,7 @@
         <v>52.55</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J494" s="3">
         <v>1</v>
@@ -21665,7 +21661,7 @@
       </c>
       <c r="F495" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>20</v>
@@ -21674,7 +21670,7 @@
         <v>52.55</v>
       </c>
       <c r="I495" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J495" s="3">
         <v>2</v>
@@ -21707,7 +21703,7 @@
       </c>
       <c r="F496" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>20</v>
@@ -21716,7 +21712,7 @@
         <v>52.55</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J496" s="3">
         <v>3</v>
@@ -21750,7 +21746,7 @@
       </c>
       <c r="F497" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>20</v>
@@ -21759,7 +21755,7 @@
         <v>52.55</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J497" s="3">
         <v>4</v>
@@ -21793,7 +21789,7 @@
       </c>
       <c r="F498" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>9</v>
@@ -21802,7 +21798,7 @@
         <v>105.09</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J498" s="3">
         <v>1</v>
@@ -21835,7 +21831,7 @@
       </c>
       <c r="F499" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>9</v>
@@ -21844,7 +21840,7 @@
         <v>105.09</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J499" s="3">
         <v>2</v>
@@ -21877,7 +21873,7 @@
       </c>
       <c r="F500" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>9</v>
@@ -21886,7 +21882,7 @@
         <v>105.09</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J500" s="3">
         <v>3</v>
@@ -21919,7 +21915,7 @@
       </c>
       <c r="F501" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>9</v>
@@ -21928,7 +21924,7 @@
         <v>105.09</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J501" s="3">
         <v>4</v>
@@ -21962,7 +21958,7 @@
       </c>
       <c r="F502" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>10</v>
@@ -21971,7 +21967,7 @@
         <v>210.19</v>
       </c>
       <c r="I502" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J502" s="3">
         <v>1</v>
@@ -22005,7 +22001,7 @@
       </c>
       <c r="F503" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>10</v>
@@ -22014,7 +22010,7 @@
         <v>210.19</v>
       </c>
       <c r="I503" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J503" s="3">
         <v>2</v>
@@ -22048,7 +22044,7 @@
       </c>
       <c r="F504" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>10</v>
@@ -22057,7 +22053,7 @@
         <v>210.19</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J504" s="3">
         <v>3</v>
@@ -22090,7 +22086,7 @@
       </c>
       <c r="F505" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G505" s="3" t="s">
         <v>10</v>
@@ -22099,7 +22095,7 @@
         <v>210.19</v>
       </c>
       <c r="I505" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J505" s="3">
         <v>4</v>
@@ -22132,7 +22128,7 @@
       </c>
       <c r="F506" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>11</v>
@@ -22141,7 +22137,7 @@
         <v>420.37</v>
       </c>
       <c r="I506" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J506" s="3">
         <v>1</v>
@@ -22175,7 +22171,7 @@
       </c>
       <c r="F507" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G507" s="3" t="s">
         <v>11</v>
@@ -22184,7 +22180,7 @@
         <v>420.37</v>
       </c>
       <c r="I507" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J507" s="3">
         <v>2</v>
@@ -22218,7 +22214,7 @@
       </c>
       <c r="F508" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>11</v>
@@ -22227,7 +22223,7 @@
         <v>420.37</v>
       </c>
       <c r="I508" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J508" s="3">
         <v>3</v>
@@ -22261,7 +22257,7 @@
       </c>
       <c r="F509" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G509" s="3" t="s">
         <v>11</v>
@@ -22270,7 +22266,7 @@
         <v>420.37</v>
       </c>
       <c r="I509" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J509" s="3">
         <v>4</v>
@@ -22304,7 +22300,7 @@
       </c>
       <c r="F510" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>12</v>
@@ -22313,7 +22309,7 @@
         <v>840.74</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J510" s="3">
         <v>1</v>
@@ -22347,7 +22343,7 @@
       </c>
       <c r="F511" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G511" s="3" t="s">
         <v>12</v>
@@ -22356,7 +22352,7 @@
         <v>840.74</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J511" s="3">
         <v>2</v>
@@ -22390,7 +22386,7 @@
       </c>
       <c r="F512" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>12</v>
@@ -22399,7 +22395,7 @@
         <v>840.74</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J512" s="3">
         <v>3</v>
@@ -22432,7 +22428,7 @@
       </c>
       <c r="F513" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G513" s="3" t="s">
         <v>12</v>
@@ -22441,7 +22437,7 @@
         <v>840.74</v>
       </c>
       <c r="I513" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J513" s="3">
         <v>4</v>
@@ -22474,7 +22470,7 @@
       </c>
       <c r="F514" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>13</v>
@@ -22483,7 +22479,7 @@
         <v>1681.48</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J514" s="3">
         <v>1</v>
@@ -22517,7 +22513,7 @@
       </c>
       <c r="F515" s="3" t="str">
         <f t="shared" ref="F515:F578" si="21">_xlfn.CONCAT(D515, "+", E515, "+", I515)</f>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>13</v>
@@ -22526,7 +22522,7 @@
         <v>1681.48</v>
       </c>
       <c r="I515" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J515" s="3">
         <v>2</v>
@@ -22560,7 +22556,7 @@
       </c>
       <c r="F516" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>13</v>
@@ -22569,7 +22565,7 @@
         <v>1681.48</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J516" s="3">
         <v>3</v>
@@ -22603,7 +22599,7 @@
       </c>
       <c r="F517" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>13</v>
@@ -22612,7 +22608,7 @@
         <v>1681.48</v>
       </c>
       <c r="I517" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J517" s="3">
         <v>4</v>
@@ -22646,7 +22642,7 @@
       </c>
       <c r="F518" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>14</v>
@@ -22655,7 +22651,7 @@
         <v>3362.96</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J518" s="3">
         <v>1</v>
@@ -22689,7 +22685,7 @@
       </c>
       <c r="F519" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G519" s="3" t="s">
         <v>14</v>
@@ -22698,7 +22694,7 @@
         <v>3362.96</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J519" s="3">
         <v>2</v>
@@ -22732,7 +22728,7 @@
       </c>
       <c r="F520" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>14</v>
@@ -22741,7 +22737,7 @@
         <v>3362.96</v>
       </c>
       <c r="I520" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J520" s="3">
         <v>3</v>
@@ -22775,7 +22771,7 @@
       </c>
       <c r="F521" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>A101+gly+GST+elevated</v>
+        <v>A101+gly+GST+increased</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>14</v>
@@ -22784,7 +22780,7 @@
         <v>3362.96</v>
       </c>
       <c r="I521" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J521" s="3">
         <v>4</v>
@@ -22827,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="I522" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J522" s="3">
         <v>1</v>
@@ -22869,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J523" s="3">
         <v>2</v>
@@ -22911,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="I524" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J524" s="3">
         <v>3</v>
@@ -22953,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J525" s="3">
         <v>4</v>
@@ -22995,7 +22991,7 @@
         <v>13.14</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J526" s="3">
         <v>1</v>
@@ -23038,7 +23034,7 @@
         <v>13.14</v>
       </c>
       <c r="I527" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J527" s="3">
         <v>2</v>
@@ -23081,7 +23077,7 @@
         <v>13.14</v>
       </c>
       <c r="I528" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J528" s="3">
         <v>3</v>
@@ -23123,7 +23119,7 @@
         <v>13.14</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J529" s="3">
         <v>4</v>
@@ -23166,7 +23162,7 @@
         <v>26.27</v>
       </c>
       <c r="I530" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J530" s="3">
         <v>1</v>
@@ -23209,7 +23205,7 @@
         <v>26.27</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J531" s="3">
         <v>2</v>
@@ -23252,7 +23248,7 @@
         <v>26.27</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J532" s="3">
         <v>3</v>
@@ -23295,7 +23291,7 @@
         <v>26.27</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J533" s="3">
         <v>4</v>
@@ -23338,7 +23334,7 @@
         <v>52.55</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J534" s="3">
         <v>1</v>
@@ -23381,7 +23377,7 @@
         <v>52.55</v>
       </c>
       <c r="I535" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J535" s="3">
         <v>2</v>
@@ -23424,7 +23420,7 @@
         <v>52.55</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J536" s="3">
         <v>3</v>
@@ -23466,7 +23462,7 @@
         <v>52.55</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J537" s="3">
         <v>4</v>
@@ -23509,7 +23505,7 @@
         <v>105.09</v>
       </c>
       <c r="I538" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J538" s="3">
         <v>1</v>
@@ -23552,7 +23548,7 @@
         <v>105.09</v>
       </c>
       <c r="I539" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J539" s="3">
         <v>2</v>
@@ -23595,7 +23591,7 @@
         <v>105.09</v>
       </c>
       <c r="I540" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J540" s="3">
         <v>3</v>
@@ -23638,7 +23634,7 @@
         <v>105.09</v>
       </c>
       <c r="I541" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J541" s="3">
         <v>4</v>
@@ -23681,7 +23677,7 @@
         <v>210.19</v>
       </c>
       <c r="I542" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J542" s="3">
         <v>1</v>
@@ -23724,7 +23720,7 @@
         <v>210.19</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J543" s="3">
         <v>2</v>
@@ -23767,7 +23763,7 @@
         <v>210.19</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J544" s="3">
         <v>3</v>
@@ -23810,7 +23806,7 @@
         <v>210.19</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J545" s="3">
         <v>4</v>
@@ -23853,7 +23849,7 @@
         <v>420.37</v>
       </c>
       <c r="I546" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J546" s="3">
         <v>1</v>
@@ -23896,7 +23892,7 @@
         <v>420.37</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J547" s="3">
         <v>2</v>
@@ -23939,7 +23935,7 @@
         <v>420.37</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J548" s="3">
         <v>3</v>
@@ -23982,7 +23978,7 @@
         <v>420.37</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J549" s="3">
         <v>4</v>
@@ -24025,7 +24021,7 @@
         <v>840.74</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J550" s="3">
         <v>1</v>
@@ -24068,7 +24064,7 @@
         <v>840.74</v>
       </c>
       <c r="I551" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J551" s="3">
         <v>2</v>
@@ -24111,7 +24107,7 @@
         <v>840.74</v>
       </c>
       <c r="I552" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J552" s="3">
         <v>3</v>
@@ -24154,7 +24150,7 @@
         <v>840.74</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J553" s="3">
         <v>4</v>
@@ -24197,7 +24193,7 @@
         <v>1681.48</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J554" s="3">
         <v>1</v>
@@ -24240,7 +24236,7 @@
         <v>1681.48</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J555" s="3">
         <v>2</v>
@@ -24283,7 +24279,7 @@
         <v>1681.48</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J556" s="3">
         <v>3</v>
@@ -24325,7 +24321,7 @@
         <v>1681.48</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J557" s="3">
         <v>4</v>
@@ -24368,7 +24364,7 @@
         <v>3362.96</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J558" s="3">
         <v>1</v>
@@ -24411,7 +24407,7 @@
         <v>3362.96</v>
       </c>
       <c r="I559" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J559" s="3">
         <v>2</v>
@@ -24454,7 +24450,7 @@
         <v>3362.96</v>
       </c>
       <c r="I560" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J560" s="3">
         <v>3</v>
@@ -24497,7 +24493,7 @@
         <v>3362.96</v>
       </c>
       <c r="I561" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J561" s="3">
         <v>4</v>
@@ -24540,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J562" s="3">
         <v>1</v>
@@ -24582,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J563" s="3">
         <v>2</v>
@@ -24624,7 +24620,7 @@
         <v>0</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J564" s="3">
         <v>3</v>
@@ -24666,7 +24662,7 @@
         <v>0</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J565" s="3">
         <v>4</v>
@@ -24708,7 +24704,7 @@
         <v>13.14</v>
       </c>
       <c r="I566" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J566" s="3">
         <v>1</v>
@@ -24751,7 +24747,7 @@
         <v>13.14</v>
       </c>
       <c r="I567" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J567" s="3">
         <v>2</v>
@@ -24793,7 +24789,7 @@
         <v>13.14</v>
       </c>
       <c r="I568" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J568" s="3">
         <v>3</v>
@@ -24836,7 +24832,7 @@
         <v>13.14</v>
       </c>
       <c r="I569" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J569" s="3">
         <v>4</v>
@@ -24879,7 +24875,7 @@
         <v>26.27</v>
       </c>
       <c r="I570" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J570" s="3">
         <v>1</v>
@@ -24921,7 +24917,7 @@
         <v>26.27</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J571" s="3">
         <v>2</v>
@@ -24964,7 +24960,7 @@
         <v>26.27</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J572" s="3">
         <v>3</v>
@@ -25007,7 +25003,7 @@
         <v>26.27</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J573" s="3">
         <v>4</v>
@@ -25050,7 +25046,7 @@
         <v>52.55</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J574" s="3">
         <v>1</v>
@@ -25093,7 +25089,7 @@
         <v>52.55</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J575" s="3">
         <v>2</v>
@@ -25136,7 +25132,7 @@
         <v>52.55</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J576" s="3">
         <v>3</v>
@@ -25178,7 +25174,7 @@
         <v>52.55</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J577" s="3">
         <v>4</v>
@@ -25221,7 +25217,7 @@
         <v>105.09</v>
       </c>
       <c r="I578" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J578" s="3">
         <v>1</v>
@@ -25264,7 +25260,7 @@
         <v>105.09</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J579" s="3">
         <v>2</v>
@@ -25307,7 +25303,7 @@
         <v>105.09</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J580" s="3">
         <v>3</v>
@@ -25350,7 +25346,7 @@
         <v>105.09</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J581" s="3">
         <v>4</v>
@@ -25393,7 +25389,7 @@
         <v>210.19</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J582" s="3">
         <v>1</v>
@@ -25436,7 +25432,7 @@
         <v>210.19</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J583" s="3">
         <v>2</v>
@@ -25478,7 +25474,7 @@
         <v>210.19</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J584" s="3">
         <v>3</v>
@@ -25521,7 +25517,7 @@
         <v>210.19</v>
       </c>
       <c r="I585" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J585" s="3">
         <v>4</v>
@@ -25564,7 +25560,7 @@
         <v>420.37</v>
       </c>
       <c r="I586" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J586" s="3">
         <v>1</v>
@@ -25607,7 +25603,7 @@
         <v>420.37</v>
       </c>
       <c r="I587" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J587" s="3">
         <v>2</v>
@@ -25650,7 +25646,7 @@
         <v>420.37</v>
       </c>
       <c r="I588" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J588" s="3">
         <v>3</v>
@@ -25693,7 +25689,7 @@
         <v>420.37</v>
       </c>
       <c r="I589" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J589" s="3">
         <v>4</v>
@@ -25736,7 +25732,7 @@
         <v>840.74</v>
       </c>
       <c r="I590" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J590" s="3">
         <v>1</v>
@@ -25779,7 +25775,7 @@
         <v>840.74</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J591" s="3">
         <v>2</v>
@@ -25822,7 +25818,7 @@
         <v>840.74</v>
       </c>
       <c r="I592" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J592" s="3">
         <v>3</v>
@@ -25865,7 +25861,7 @@
         <v>840.74</v>
       </c>
       <c r="I593" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J593" s="3">
         <v>4</v>
@@ -25908,7 +25904,7 @@
         <v>1681.48</v>
       </c>
       <c r="I594" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J594" s="3">
         <v>1</v>
@@ -25951,7 +25947,7 @@
         <v>1681.48</v>
       </c>
       <c r="I595" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J595" s="3">
         <v>2</v>
@@ -25994,7 +25990,7 @@
         <v>1681.48</v>
       </c>
       <c r="I596" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J596" s="3">
         <v>3</v>
@@ -26037,7 +26033,7 @@
         <v>1681.48</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J597" s="3">
         <v>4</v>
@@ -26079,7 +26075,7 @@
         <v>3362.96</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J598" s="3">
         <v>1</v>
@@ -26122,7 +26118,7 @@
         <v>3362.96</v>
       </c>
       <c r="I599" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J599" s="3">
         <v>2</v>
@@ -26165,7 +26161,7 @@
         <v>3362.96</v>
       </c>
       <c r="I600" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J600" s="3">
         <v>3</v>
@@ -26208,7 +26204,7 @@
         <v>3362.96</v>
       </c>
       <c r="I601" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J601" s="3">
         <v>4</v>
@@ -26251,7 +26247,7 @@
         <v>0</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J602" s="3">
         <v>1</v>
@@ -26293,7 +26289,7 @@
         <v>0</v>
       </c>
       <c r="I603" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J603" s="3">
         <v>2</v>
@@ -26335,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="I604" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J604" s="3">
         <v>3</v>
@@ -26377,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="I605" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J605" s="3">
         <v>4</v>
@@ -26419,7 +26415,7 @@
         <v>13.14</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J606" s="3">
         <v>1</v>
@@ -26462,7 +26458,7 @@
         <v>13.14</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J607" s="3">
         <v>2</v>
@@ -26505,7 +26501,7 @@
         <v>13.14</v>
       </c>
       <c r="I608" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J608" s="3">
         <v>3</v>
@@ -26548,7 +26544,7 @@
         <v>13.14</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J609" s="3">
         <v>4</v>
@@ -26591,7 +26587,7 @@
         <v>26.27</v>
       </c>
       <c r="I610" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J610" s="3">
         <v>1</v>
@@ -26634,7 +26630,7 @@
         <v>26.27</v>
       </c>
       <c r="I611" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J611" s="3">
         <v>2</v>
@@ -26676,7 +26672,7 @@
         <v>26.27</v>
       </c>
       <c r="I612" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J612" s="3">
         <v>3</v>
@@ -26719,7 +26715,7 @@
         <v>26.27</v>
       </c>
       <c r="I613" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J613" s="3">
         <v>4</v>
@@ -26762,7 +26758,7 @@
         <v>52.55</v>
       </c>
       <c r="I614" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J614" s="3">
         <v>1</v>
@@ -26805,7 +26801,7 @@
         <v>52.55</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J615" s="3">
         <v>2</v>
@@ -26848,7 +26844,7 @@
         <v>52.55</v>
       </c>
       <c r="I616" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J616" s="3">
         <v>3</v>
@@ -26891,7 +26887,7 @@
         <v>52.55</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J617" s="3">
         <v>4</v>
@@ -26934,7 +26930,7 @@
         <v>105.09</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J618" s="3">
         <v>1</v>
@@ -26977,7 +26973,7 @@
         <v>105.09</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J619" s="3">
         <v>2</v>
@@ -27020,7 +27016,7 @@
         <v>105.09</v>
       </c>
       <c r="I620" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J620" s="3">
         <v>3</v>
@@ -27063,7 +27059,7 @@
         <v>105.09</v>
       </c>
       <c r="I621" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J621" s="3">
         <v>4</v>
@@ -27106,7 +27102,7 @@
         <v>210.19</v>
       </c>
       <c r="I622" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J622" s="3">
         <v>1</v>
@@ -27149,7 +27145,7 @@
         <v>210.19</v>
       </c>
       <c r="I623" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J623" s="3">
         <v>2</v>
@@ -27192,7 +27188,7 @@
         <v>210.19</v>
       </c>
       <c r="I624" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J624" s="3">
         <v>3</v>
@@ -27235,7 +27231,7 @@
         <v>210.19</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J625" s="3">
         <v>4</v>
@@ -27278,7 +27274,7 @@
         <v>420.37</v>
       </c>
       <c r="I626" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J626" s="3">
         <v>1</v>
@@ -27321,7 +27317,7 @@
         <v>420.37</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J627" s="3">
         <v>2</v>
@@ -27364,7 +27360,7 @@
         <v>420.37</v>
       </c>
       <c r="I628" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J628" s="3">
         <v>3</v>
@@ -27407,7 +27403,7 @@
         <v>420.37</v>
       </c>
       <c r="I629" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J629" s="3">
         <v>4</v>
@@ -27450,7 +27446,7 @@
         <v>840.74</v>
       </c>
       <c r="I630" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J630" s="3">
         <v>1</v>
@@ -27493,7 +27489,7 @@
         <v>840.74</v>
       </c>
       <c r="I631" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J631" s="3">
         <v>2</v>
@@ -27536,7 +27532,7 @@
         <v>840.74</v>
       </c>
       <c r="I632" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J632" s="3">
         <v>3</v>
@@ -27579,7 +27575,7 @@
         <v>840.74</v>
       </c>
       <c r="I633" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J633" s="3">
         <v>4</v>
@@ -27622,7 +27618,7 @@
         <v>1681.48</v>
       </c>
       <c r="I634" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J634" s="3">
         <v>1</v>
@@ -27665,7 +27661,7 @@
         <v>1681.48</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J635" s="3">
         <v>2</v>
@@ -27708,7 +27704,7 @@
         <v>1681.48</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J636" s="3">
         <v>3</v>
@@ -27751,7 +27747,7 @@
         <v>1681.48</v>
       </c>
       <c r="I637" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J637" s="3">
         <v>4</v>
@@ -27794,7 +27790,7 @@
         <v>3362.96</v>
       </c>
       <c r="I638" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J638" s="3">
         <v>1</v>
@@ -27837,7 +27833,7 @@
         <v>3362.96</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J639" s="3">
         <v>2</v>
@@ -27880,7 +27876,7 @@
         <v>3362.96</v>
       </c>
       <c r="I640" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J640" s="3">
         <v>3</v>
@@ -27923,7 +27919,7 @@
         <v>3362.96</v>
       </c>
       <c r="I641" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J641" s="3">
         <v>4</v>
